--- a/artfynd/A 3367-2026 artfynd.xlsx
+++ b/artfynd/A 3367-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY18"/>
+  <dimension ref="A1:AY29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2526,6 +2526,1258 @@
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>131090310</v>
+      </c>
+      <c r="B19" t="n">
+        <v>91804</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>584977</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7060194</v>
+      </c>
+      <c r="S19" t="n">
+        <v>15</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>14:06</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>14:06</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>131090145</v>
+      </c>
+      <c r="B20" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Timmeråsen, Timmeråsen, Ång</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>585013</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7060142</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>13:53</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>13:53</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>131090091</v>
+      </c>
+      <c r="B21" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>585024</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7060099</v>
+      </c>
+      <c r="S21" t="n">
+        <v>15</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>13:50</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>13:50</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Färska ringhack, tall</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>131090374</v>
+      </c>
+      <c r="B22" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>584977</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7060203</v>
+      </c>
+      <c r="S22" t="n">
+        <v>15</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Färska ringhack tall</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>131090601</v>
+      </c>
+      <c r="B23" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Hållflon, Hållflon, Ång</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>584871</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7060419</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Ringhack på tall</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>131090313</v>
+      </c>
+      <c r="B24" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Timmeråsen, Timmeråsen, Ång</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>585012</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7060182</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>14:05</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>14:05</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Ringhack på tall</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>131090020</v>
+      </c>
+      <c r="B25" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>585065</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7060076</v>
+      </c>
+      <c r="S25" t="n">
+        <v>15</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Färska ringhack tall</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>131090008</v>
+      </c>
+      <c r="B26" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>585080</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7060076</v>
+      </c>
+      <c r="S26" t="n">
+        <v>15</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>13:46</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>13:46</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Färska ringhack, tall</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>131090015</v>
+      </c>
+      <c r="B27" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Timmeråsen, Timmeråsen, Ång</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>585076</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7060075</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>13:46</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>13:46</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Ringhack på tall</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>131089521</v>
+      </c>
+      <c r="B28" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>584995</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7060537</v>
+      </c>
+      <c r="S28" t="n">
+        <v>15</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>13:14</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>13:14</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>131090275</v>
+      </c>
+      <c r="B29" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>584987</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7060190</v>
+      </c>
+      <c r="S29" t="n">
+        <v>15</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 3367-2026 artfynd.xlsx
+++ b/artfynd/A 3367-2026 artfynd.xlsx
@@ -2635,10 +2635,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131090145</v>
+        <v>131090091</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2646,37 +2646,42 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Timmeråsen, Timmeråsen, Ång</t>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>585013</v>
+        <v>585024</v>
       </c>
       <c r="R20" t="n">
-        <v>7060142</v>
+        <v>7060099</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2705,7 +2710,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2715,7 +2720,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:50</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Färska ringhack, tall</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2730,22 +2740,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131090091</v>
+        <v>131090145</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2753,42 +2763,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+          <t>Timmeråsen, Timmeråsen, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>585024</v>
+        <v>585013</v>
       </c>
       <c r="R21" t="n">
-        <v>7060099</v>
+        <v>7060142</v>
       </c>
       <c r="S21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2817,7 +2822,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2827,12 +2832,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:50</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Färska ringhack, tall</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2847,12 +2847,12 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>

--- a/artfynd/A 3367-2026 artfynd.xlsx
+++ b/artfynd/A 3367-2026 artfynd.xlsx
@@ -2635,10 +2635,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131090091</v>
+        <v>131090145</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2646,42 +2646,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+          <t>Timmeråsen, Timmeråsen, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>585024</v>
+        <v>585013</v>
       </c>
       <c r="R20" t="n">
-        <v>7060099</v>
+        <v>7060142</v>
       </c>
       <c r="S20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2710,7 +2705,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2720,12 +2715,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:50</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Färska ringhack, tall</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2740,22 +2730,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131090145</v>
+        <v>131090091</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2763,37 +2753,42 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Timmeråsen, Timmeråsen, Ång</t>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>585013</v>
+        <v>585024</v>
       </c>
       <c r="R21" t="n">
-        <v>7060142</v>
+        <v>7060099</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2822,7 +2817,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2832,7 +2827,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:50</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Färska ringhack, tall</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2847,12 +2847,12 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>

--- a/artfynd/A 3367-2026 artfynd.xlsx
+++ b/artfynd/A 3367-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY29"/>
+  <dimension ref="A1:AY33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3561,10 +3561,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131089521</v>
+        <v>131090275</v>
       </c>
       <c r="B28" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3590,9 +3590,14 @@
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3601,10 +3606,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>584995</v>
+        <v>584987</v>
       </c>
       <c r="R28" t="n">
-        <v>7060537</v>
+        <v>7060190</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3634,19 +3639,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>13:14</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>13:14</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3673,10 +3668,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131090275</v>
+        <v>131089521</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3684,16 +3679,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3702,14 +3697,9 @@
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3718,10 +3708,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>584987</v>
+        <v>584995</v>
       </c>
       <c r="R29" t="n">
-        <v>7060190</v>
+        <v>7060537</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3751,9 +3741,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>13:14</t>
+        </is>
+      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3777,6 +3777,428 @@
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>131144497</v>
+      </c>
+      <c r="B30" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Röån, Ång</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>584884</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7060423</v>
+      </c>
+      <c r="S30" t="n">
+        <v>15</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Färska ringhack</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>131144494</v>
+      </c>
+      <c r="B31" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Röån, Ång</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>585030</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7060258</v>
+      </c>
+      <c r="S31" t="n">
+        <v>15</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>131144496</v>
+      </c>
+      <c r="B32" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Röån, Ång</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>584875</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7060422</v>
+      </c>
+      <c r="S32" t="n">
+        <v>15</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Färska ringhack, tall</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>131144498</v>
+      </c>
+      <c r="B33" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Röån, Ång</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>584857</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7060494</v>
+      </c>
+      <c r="S33" t="n">
+        <v>15</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 3367-2026 artfynd.xlsx
+++ b/artfynd/A 3367-2026 artfynd.xlsx
@@ -2635,10 +2635,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131090145</v>
+        <v>131090091</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2646,37 +2646,42 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Timmeråsen, Timmeråsen, Ång</t>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>585013</v>
+        <v>585024</v>
       </c>
       <c r="R20" t="n">
-        <v>7060142</v>
+        <v>7060099</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2705,7 +2710,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2715,7 +2720,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:50</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Färska ringhack, tall</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2730,22 +2740,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131090091</v>
+        <v>131090145</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2753,42 +2763,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+          <t>Timmeråsen, Timmeråsen, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>585024</v>
+        <v>585013</v>
       </c>
       <c r="R21" t="n">
-        <v>7060099</v>
+        <v>7060142</v>
       </c>
       <c r="S21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2817,7 +2822,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2827,12 +2832,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:50</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Färska ringhack, tall</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2847,12 +2847,12 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
@@ -3993,10 +3993,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131144496</v>
+        <v>131144498</v>
       </c>
       <c r="B32" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4004,27 +4004,27 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4033,10 +4033,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>584875</v>
+        <v>584857</v>
       </c>
       <c r="R32" t="n">
-        <v>7060422</v>
+        <v>7060494</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4069,11 +4069,6 @@
       <c r="AA32" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Färska ringhack, tall</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4100,10 +4095,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131144498</v>
+        <v>131144496</v>
       </c>
       <c r="B33" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4111,27 +4106,27 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4140,10 +4135,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>584857</v>
+        <v>584875</v>
       </c>
       <c r="R33" t="n">
-        <v>7060494</v>
+        <v>7060422</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4176,6 +4171,11 @@
       <c r="AA33" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Färska ringhack, tall</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 3367-2026 artfynd.xlsx
+++ b/artfynd/A 3367-2026 artfynd.xlsx
@@ -2531,7 +2531,7 @@
         <v>131090310</v>
       </c>
       <c r="B19" t="n">
-        <v>91804</v>
+        <v>91805</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2635,10 +2635,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131090091</v>
+        <v>131090145</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2646,42 +2646,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+          <t>Timmeråsen, Timmeråsen, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>585024</v>
+        <v>585013</v>
       </c>
       <c r="R20" t="n">
-        <v>7060099</v>
+        <v>7060142</v>
       </c>
       <c r="S20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2710,7 +2705,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2720,12 +2715,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:50</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Färska ringhack, tall</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2740,22 +2730,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131090145</v>
+        <v>131090091</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2763,37 +2753,42 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Timmeråsen, Timmeråsen, Ång</t>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>585013</v>
+        <v>585024</v>
       </c>
       <c r="R21" t="n">
-        <v>7060142</v>
+        <v>7060099</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2822,7 +2817,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2832,7 +2827,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:50</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Färska ringhack, tall</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2847,12 +2847,12 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
@@ -3993,10 +3993,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131144498</v>
+        <v>131144496</v>
       </c>
       <c r="B32" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4004,27 +4004,27 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4033,10 +4033,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>584857</v>
+        <v>584875</v>
       </c>
       <c r="R32" t="n">
-        <v>7060494</v>
+        <v>7060422</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4069,6 +4069,11 @@
       <c r="AA32" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Färska ringhack, tall</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4095,10 +4100,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131144496</v>
+        <v>131144498</v>
       </c>
       <c r="B33" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4106,27 +4111,27 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4135,10 +4140,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>584875</v>
+        <v>584857</v>
       </c>
       <c r="R33" t="n">
-        <v>7060422</v>
+        <v>7060494</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4171,11 +4176,6 @@
       <c r="AA33" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Färska ringhack, tall</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 3367-2026 artfynd.xlsx
+++ b/artfynd/A 3367-2026 artfynd.xlsx
@@ -3993,10 +3993,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131144496</v>
+        <v>131144498</v>
       </c>
       <c r="B32" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4004,27 +4004,27 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4033,10 +4033,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>584875</v>
+        <v>584857</v>
       </c>
       <c r="R32" t="n">
-        <v>7060422</v>
+        <v>7060494</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4069,11 +4069,6 @@
       <c r="AA32" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Färska ringhack, tall</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4100,10 +4095,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131144498</v>
+        <v>131144496</v>
       </c>
       <c r="B33" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4111,27 +4106,27 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4140,10 +4135,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>584857</v>
+        <v>584875</v>
       </c>
       <c r="R33" t="n">
-        <v>7060494</v>
+        <v>7060422</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4176,6 +4171,11 @@
       <c r="AA33" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Färska ringhack, tall</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 3367-2026 artfynd.xlsx
+++ b/artfynd/A 3367-2026 artfynd.xlsx
@@ -3561,10 +3561,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131090275</v>
+        <v>131089521</v>
       </c>
       <c r="B28" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3590,14 +3590,9 @@
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3606,10 +3601,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>584987</v>
+        <v>584995</v>
       </c>
       <c r="R28" t="n">
-        <v>7060190</v>
+        <v>7060537</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3639,9 +3634,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>13:14</t>
+        </is>
+      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3668,10 +3673,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131089521</v>
+        <v>131090275</v>
       </c>
       <c r="B29" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3679,16 +3684,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3697,9 +3702,14 @@
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3708,10 +3718,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>584995</v>
+        <v>584987</v>
       </c>
       <c r="R29" t="n">
-        <v>7060537</v>
+        <v>7060190</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3741,19 +3751,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>13:14</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>13:14</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3993,10 +3993,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131144498</v>
+        <v>131144496</v>
       </c>
       <c r="B32" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4004,27 +4004,27 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4033,10 +4033,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>584857</v>
+        <v>584875</v>
       </c>
       <c r="R32" t="n">
-        <v>7060494</v>
+        <v>7060422</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4069,6 +4069,11 @@
       <c r="AA32" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Färska ringhack, tall</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4095,10 +4100,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131144496</v>
+        <v>131144498</v>
       </c>
       <c r="B33" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4106,27 +4111,27 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4135,10 +4140,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>584875</v>
+        <v>584857</v>
       </c>
       <c r="R33" t="n">
-        <v>7060422</v>
+        <v>7060494</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4171,11 +4176,6 @@
       <c r="AA33" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Färska ringhack, tall</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 3367-2026 artfynd.xlsx
+++ b/artfynd/A 3367-2026 artfynd.xlsx
@@ -2635,10 +2635,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131090145</v>
+        <v>131090091</v>
       </c>
       <c r="B20" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2646,37 +2646,42 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Timmeråsen, Timmeråsen, Ång</t>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>585013</v>
+        <v>585024</v>
       </c>
       <c r="R20" t="n">
-        <v>7060142</v>
+        <v>7060099</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2705,7 +2710,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2715,7 +2720,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:50</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Färska ringhack, tall</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2730,22 +2740,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131090091</v>
+        <v>131090145</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2753,42 +2763,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+          <t>Timmeråsen, Timmeråsen, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>585024</v>
+        <v>585013</v>
       </c>
       <c r="R21" t="n">
-        <v>7060099</v>
+        <v>7060142</v>
       </c>
       <c r="S21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2817,7 +2822,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2827,12 +2832,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:50</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Färska ringhack, tall</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2847,12 +2847,12 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>

--- a/artfynd/A 3367-2026 artfynd.xlsx
+++ b/artfynd/A 3367-2026 artfynd.xlsx
@@ -2531,7 +2531,7 @@
         <v>131090310</v>
       </c>
       <c r="B19" t="n">
-        <v>91805</v>
+        <v>91806</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>131090145</v>
       </c>
       <c r="B21" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3561,10 +3561,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131089521</v>
+        <v>131090275</v>
       </c>
       <c r="B28" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3590,9 +3590,14 @@
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3601,10 +3606,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>584995</v>
+        <v>584987</v>
       </c>
       <c r="R28" t="n">
-        <v>7060537</v>
+        <v>7060190</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3634,19 +3639,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>13:14</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>13:14</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3673,10 +3668,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131090275</v>
+        <v>131089521</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3684,16 +3679,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3702,14 +3697,9 @@
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3718,10 +3708,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>584987</v>
+        <v>584995</v>
       </c>
       <c r="R29" t="n">
-        <v>7060190</v>
+        <v>7060537</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3751,9 +3741,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>13:14</t>
+        </is>
+      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>13:14</t>
         </is>
       </c>
       <c r="AD29" t="b">

--- a/artfynd/A 3367-2026 artfynd.xlsx
+++ b/artfynd/A 3367-2026 artfynd.xlsx
@@ -2635,10 +2635,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131090091</v>
+        <v>131090145</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2646,42 +2646,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+          <t>Timmeråsen, Timmeråsen, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>585024</v>
+        <v>585013</v>
       </c>
       <c r="R20" t="n">
-        <v>7060099</v>
+        <v>7060142</v>
       </c>
       <c r="S20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2710,7 +2705,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2720,12 +2715,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:50</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Färska ringhack, tall</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2740,22 +2730,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131090145</v>
+        <v>131090091</v>
       </c>
       <c r="B21" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2763,37 +2753,42 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Timmeråsen, Timmeråsen, Ång</t>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>585013</v>
+        <v>585024</v>
       </c>
       <c r="R21" t="n">
-        <v>7060142</v>
+        <v>7060099</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2822,7 +2817,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2832,7 +2827,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:50</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Färska ringhack, tall</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2847,12 +2847,12 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
@@ -3993,10 +3993,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131144496</v>
+        <v>131144498</v>
       </c>
       <c r="B32" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4004,27 +4004,27 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4033,10 +4033,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>584875</v>
+        <v>584857</v>
       </c>
       <c r="R32" t="n">
-        <v>7060422</v>
+        <v>7060494</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4069,11 +4069,6 @@
       <c r="AA32" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Färska ringhack, tall</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4100,10 +4095,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131144498</v>
+        <v>131144496</v>
       </c>
       <c r="B33" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4111,27 +4106,27 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4140,10 +4135,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>584857</v>
+        <v>584875</v>
       </c>
       <c r="R33" t="n">
-        <v>7060494</v>
+        <v>7060422</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4176,6 +4171,11 @@
       <c r="AA33" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Färska ringhack, tall</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 3367-2026 artfynd.xlsx
+++ b/artfynd/A 3367-2026 artfynd.xlsx
@@ -2531,7 +2531,7 @@
         <v>131090310</v>
       </c>
       <c r="B19" t="n">
-        <v>91806</v>
+        <v>91809</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
